--- a/images/ANKIETY.xlsx
+++ b/images/ANKIETY.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD922AFC-6E59-3D45-A3CC-B6BC99461D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE588D-8384-1E4C-8A5A-2383A1AA84BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="-25900" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
     <sheet name="Wyniki ankiety" sheetId="1" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wyniki ankiety'!$A$1:$J$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="62">
   <si>
     <t>Plik</t>
   </si>
@@ -124,6 +125,96 @@
   <si>
     <t>png</t>
   </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>kto</t>
+  </si>
+  <si>
+    <t>pelna</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>ola</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>piotr patalas</t>
+  </si>
+  <si>
+    <t>olaf</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>kajoj</t>
+  </si>
+  <si>
+    <t>karol m</t>
+  </si>
+  <si>
+    <t>mieto</t>
+  </si>
+  <si>
+    <t>kamil h</t>
+  </si>
+  <si>
+    <t>roszkol</t>
+  </si>
+  <si>
+    <t>łazik</t>
+  </si>
+  <si>
+    <t>tomek p</t>
+  </si>
+  <si>
+    <t>dziuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedka </t>
+  </si>
+  <si>
+    <t>kapala</t>
+  </si>
+  <si>
+    <t>marcin wos</t>
+  </si>
+  <si>
+    <t>adam dzien</t>
+  </si>
+  <si>
+    <t>krzysztof kot</t>
+  </si>
+  <si>
+    <t>filip wenzerowicz</t>
+  </si>
+  <si>
+    <t>michal kazmierczak</t>
+  </si>
+  <si>
+    <t>szymon anikiej</t>
+  </si>
+  <si>
+    <t>romanek</t>
+  </si>
+  <si>
+    <t>adrian mucha</t>
+  </si>
+  <si>
+    <t>sprawdzic</t>
+  </si>
+  <si>
+    <t>BEZ ROZSZERZENIA</t>
+  </si>
 </sst>
 </file>
 
@@ -158,13 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3143,7 +3233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD6C069-EFD6-9846-ACE5-850FE1EFD6CC}" name="Tabela przestawna4" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD6C069-EFD6-9846-ACE5-850FE1EFD6CC}" name="Tabela przestawna4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A6:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3563,7 +3653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F90AB74-40B7-CA47-8845-D89E92863951}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3619,7 +3709,7 @@
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>9</v>
       </c>
     </row>
@@ -3627,7 +3717,7 @@
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>9</v>
       </c>
     </row>
@@ -8299,4 +8389,302 @@
     <ignoredError sqref="A1:J136" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409AAD08-4A49-6043-9EC9-F8107EAF03F6}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/ANKIETY.xlsx
+++ b/images/ANKIETY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE588D-8384-1E4C-8A5A-2383A1AA84BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC4237-F63B-0E41-AB6F-5A96BDB99AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,18 @@
     <sheet name="Arkusz2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Arkusz2!$B$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wyniki ankiety'!$A$1:$J$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="74">
   <si>
     <t>Plik</t>
   </si>
@@ -215,6 +216,42 @@
   <si>
     <t>BEZ ROZSZERZENIA</t>
   </si>
+  <si>
+    <t>plik</t>
+  </si>
+  <si>
+    <t>krutul</t>
+  </si>
+  <si>
+    <t>oleszczuk</t>
+  </si>
+  <si>
+    <t>koprowski</t>
+  </si>
+  <si>
+    <t>franczak</t>
+  </si>
+  <si>
+    <t>mariusz kania</t>
+  </si>
+  <si>
+    <t>wróblewksi patryk</t>
+  </si>
+  <si>
+    <t>jakub pyrcak</t>
+  </si>
+  <si>
+    <t>Ola od patryka wróblewskiego</t>
+  </si>
+  <si>
+    <t>yuliia</t>
+  </si>
+  <si>
+    <t>marek dubiel</t>
+  </si>
+  <si>
+    <t>pobrano</t>
+  </si>
 </sst>
 </file>
 
@@ -229,12 +266,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,12 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3233,7 +3277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD6C069-EFD6-9846-ACE5-850FE1EFD6CC}" name="Tabela przestawna4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD6C069-EFD6-9846-ACE5-850FE1EFD6CC}" name="Tabela przestawna4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A6:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -8393,10 +8437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409AAD08-4A49-6043-9EC9-F8107EAF03F6}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="136" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8406,7 +8450,7 @@
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -8416,9 +8460,15 @@
       <c r="C1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -8427,264 +8477,560 @@
       <c r="C2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:E1" xr:uid="{409AAD08-4A49-6043-9EC9-F8107EAF03F6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E38">
+      <sortCondition descending="1" ref="C1:C38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>